--- a/Assets/StaticData/Xlsx/PlayerSkills.xlsx
+++ b/Assets/StaticData/Xlsx/PlayerSkills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CoffeeCat_RogueLite_Project\Assets\Resources\StaticData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CoffeeCat_RogueLite_Project\Assets\StaticData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EBB07-F47E-4226-A89B-69448E24BF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD89F7E-A164-4A64-B920-3AEC864B7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEFF60A8-3F85-4A92-8727-6613D870E2B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>스킬 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB7CDA-B6DD-480D-906E-C7E484E83C4A}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,6 +760,93 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StaticData/Xlsx/PlayerSkills.xlsx
+++ b/Assets/StaticData/Xlsx/PlayerSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CoffeeCat_RogueLite_Project\Assets\StaticData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD89F7E-A164-4A64-B920-3AEC864B7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF231727-D17B-41D9-BCCA-07C87B059103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEFF60A8-3F85-4A92-8727-6613D870E2B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>Beam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubble</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB7CDA-B6DD-480D-906E-C7E484E83C4A}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +689,7 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -722,7 +726,7 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -751,7 +755,7 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -844,6 +848,35 @@
         <v>3</v>
       </c>
       <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
     </row>
